--- a/data/evaluation/evaluation_South_Summer_Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11561.9069541653</v>
+        <v>12224.72700169349</v>
       </c>
       <c r="C4" t="n">
-        <v>551327366.8146884</v>
+        <v>699438478.09417</v>
       </c>
       <c r="D4" t="n">
-        <v>23480.36130076981</v>
+        <v>26446.8992151097</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.902125870319665</v>
+        <v>-3.950410852696966</v>
       </c>
     </row>
     <row r="5">
